--- a/01.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
+++ b/01.LVGL_Demo/STM32F407VGT6引脚定义.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU Project\STM32F407Project\LVGL\00.LVGL_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU Project\STM32F407Project\LVGL\01.LVGL_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53E0C0D-8B35-43EC-9A78-F7BB7F7FECB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB0513-7914-40E4-AD5E-C297FB6D9880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="238">
   <si>
     <t>NRST</t>
   </si>
@@ -1032,6 +1032,30 @@
   </si>
   <si>
     <t>TP_INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLX_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLX_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1631,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2698,9 @@
       <c r="G46" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="20"/>
+      <c r="H46" s="20" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
@@ -2696,7 +2722,9 @@
       <c r="G47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="20" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
@@ -2718,7 +2746,9 @@
       <c r="G48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
@@ -3158,14 +3188,16 @@
       <c r="G68" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="20"/>
+      <c r="H68" s="20" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="9">
-        <v>0</v>
+      <c r="B69" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>13</v>
@@ -3180,7 +3212,9 @@
       <c r="G69" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="20"/>
+      <c r="H69" s="20" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
